--- a/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 2 (39, 17, 23, 27, 8)/MDD 9 (4, 32, 48, 44, 31)/ANN_128nodes_Uniform0.05Virtual_Control(39, 17, 23, 27, 8)_MDD(4, 32, 48, 44, 31)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 2 (39, 17, 23, 27, 8)/MDD 9 (4, 32, 48, 44, 31)/ANN_128nodes_Uniform0.05Virtual_Control(39, 17, 23, 27, 8)_MDD(4, 32, 48, 44, 31)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
@@ -470,10 +470,10 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>7.308169446871279E-11</v>
+        <v>4.157731461785933E-07</v>
       </c>
       <c r="E3">
-        <v>7.308169446871279E-11</v>
+        <v>4.157731461785933E-07</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.9809204481781227</v>
+        <v>0.957011486874055</v>
       </c>
       <c r="E4">
-        <v>0.9809204481781227</v>
+        <v>0.957011486874055</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>1.9749906974034E-13</v>
+        <v>2.033956699947414E-05</v>
       </c>
       <c r="E5">
-        <v>1.9749906974034E-13</v>
+        <v>2.033956699947414E-05</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>1.448614848852844E-17</v>
+        <v>7.064351745193415E-25</v>
       </c>
       <c r="E6">
-        <v>1.448614848852844E-17</v>
+        <v>7.064351745193415E-25</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -526,10 +526,10 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.05911929348200143</v>
+        <v>0.005965608981428</v>
       </c>
       <c r="E7">
-        <v>0.9408807065179986</v>
+        <v>0.994034391018572</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -540,10 +540,10 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>3.463362619074987E-07</v>
+        <v>2.269328663683384E-05</v>
       </c>
       <c r="E8">
-        <v>0.9999996536637381</v>
+        <v>0.9999773067133632</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -554,10 +554,10 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.9999999999940914</v>
+        <v>0.9999999999965707</v>
       </c>
       <c r="E9">
-        <v>5.908606937055083E-12</v>
+        <v>3.429256878462184E-12</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -568,10 +568,10 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01457024105789398</v>
+        <v>5.019302784133008E-06</v>
       </c>
       <c r="E10">
-        <v>0.985429758942106</v>
+        <v>0.9999949806972158</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -582,13 +582,13 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0.9999404442311979</v>
+        <v>0.9999673088640366</v>
       </c>
       <c r="E11">
-        <v>5.955576880212199E-05</v>
+        <v>3.26911359633808E-05</v>
       </c>
       <c r="F11">
-        <v>7.425272941589355</v>
+        <v>9.984767913818359</v>
       </c>
       <c r="G11">
         <v>0.5</v>
